--- a/biology/Botanique/Médaille_commémorative_Veitch/Médaille_commémorative_Veitch.xlsx
+++ b/biology/Botanique/Médaille_commémorative_Veitch/Médaille_commémorative_Veitch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_comm%C3%A9morative_Veitch</t>
+          <t>Médaille_commémorative_Veitch</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La médaille commémorative Veitch est une distinction, créée en 1869, et décernée chaque année par la Royal Horticultural Society. Elle porte le nom de James Veitch (1815-1869).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_comm%C3%A9morative_Veitch</t>
+          <t>Médaille_commémorative_Veitch</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Il existe une catégorie consacrée à ce sujet : Lauréat de la médaille commémorative Veitch.
@@ -544,7 +558,7 @@
 2000 : Maurice et Brian Woodfield
 2001 : Francis Higginson Cabot (1925–2011)
 2002 : Piet Oudolf (1944)
-2002 : Stella Ross-Craig (1906–2006)[1]
+2002 : Stella Ross-Craig (1906–2006)
 2003 : Philippe de Spoelberch (1941-)
 2003 : Martin John Bukovac
 2005 : Anne-Marie Evans
@@ -553,9 +567,9 @@
 2008 : James Beard
 2008 : Michael Nelson
 2008 : Arabella Lennox-Boyd
-2009 : David Wheeler (1945)[2]
-2009 : Joan Morgan[2]
-2009 : Jozef Vasn Assche[2]
+2009 : David Wheeler (1945)
+2009 : Joan Morgan
+2009 : Jozef Vasn Assche
 2010 : Dr. Stefan T. Buczacki
 2011 : Graham Ross (Australia)
 2011 : Christopher Bailes
